--- a/HybridFrameWorkTest/src/test/resources/testData/TestData.xlsx
+++ b/HybridFrameWorkTest/src/test/resources/testData/TestData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sepurush\eclipse-workspace\HybridFrameWorkTest\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Akhil\Git\automationpractice\automationpractice_Repo\HybridFrameWorkTest\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D630E6-4E46-4972-8AFF-C4ACB33453A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A98CCC-08B7-401D-B7D0-024DF6D012BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6910" xr2:uid="{3E7FC9F2-D80D-4887-99DF-605498FFB0FA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3E7FC9F2-D80D-4887-99DF-605498FFB0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,18 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>Aditi</t>
-  </si>
-  <si>
-    <t>A1234!</t>
   </si>
   <si>
     <t>Testcase</t>
@@ -409,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9CED42-FE43-4A94-872E-E984BF51B89A}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -424,7 +418,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -435,29 +429,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
